--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D118" s="3" t="n">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D217" s="3" t="n">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D232" s="3" t="n">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D268" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -3299,7 +3299,7 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -9215,7 +9215,7 @@
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D278" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -2342,7 +2342,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D202" s="3" t="n">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D235" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D126" s="3" t="n">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D226" s="3" t="n">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D229" s="3" t="n">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D248" s="3" t="n">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D256" s="3" t="n">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D257" s="3" t="n">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D259" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D190" s="3" t="n">

--- a/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Бахор/jk_data.xlsx
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
